--- a/用例/NEST用例.xlsx
+++ b/用例/NEST用例.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="登录测试" sheetId="2" r:id="rId1"/>
     <sheet name="admin_信息看板" sheetId="1" r:id="rId2"/>
     <sheet name="admin_流量方管理" sheetId="3" r:id="rId3"/>
+    <sheet name="admin_代理商管理" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
   <si>
     <t>用例编号</t>
   </si>
@@ -629,6 +630,289 @@
   </si>
   <si>
     <t>文件中 输入已分配给其它流量方的SN</t>
+  </si>
+  <si>
+    <t>流量方管理查询</t>
+  </si>
+  <si>
+    <t>所有查询条件不输入，点击查询</t>
+  </si>
+  <si>
+    <t>查询出所有数据</t>
+  </si>
+  <si>
+    <t>输入框默认显示查询框的条件，输入字符后消失，删除字符后再次出现</t>
+  </si>
+  <si>
+    <t>符合</t>
+  </si>
+  <si>
+    <t>流量方编号</t>
+  </si>
+  <si>
+    <t>流量方编号 输入存在的值</t>
+  </si>
+  <si>
+    <t>查询出正确数据</t>
+  </si>
+  <si>
+    <t>流量方编号 输入部分值</t>
+  </si>
+  <si>
+    <t>不支持模糊查询，查询为空</t>
+  </si>
+  <si>
+    <t>流量方编号 输入特殊字符</t>
+  </si>
+  <si>
+    <t>查询为空</t>
+  </si>
+  <si>
+    <t>流量方名称 输入存在的值</t>
+  </si>
+  <si>
+    <t>流量方名称 输入部分值</t>
+  </si>
+  <si>
+    <t>查询出正确数据，支持模糊查询</t>
+  </si>
+  <si>
+    <t>查询出对应结果</t>
+  </si>
+  <si>
+    <t>管理员用户名</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入存在的值</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入部分值</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入特殊字符</t>
+  </si>
+  <si>
+    <t>联系人 输入存在的值</t>
+  </si>
+  <si>
+    <t>联系人 输入部分值</t>
+  </si>
+  <si>
+    <t>联系人 输入特殊字符</t>
+  </si>
+  <si>
+    <t>输入所有查询条件，点击查询</t>
+  </si>
+  <si>
+    <t>搜索框查询 同上</t>
+  </si>
+  <si>
+    <t>代理商管理列表</t>
+  </si>
+  <si>
+    <t>点击菜单 代理商管理</t>
+  </si>
+  <si>
+    <t>菜单被选中，并打开代理商管理页面</t>
+  </si>
+  <si>
+    <t>代理商新增</t>
+  </si>
+  <si>
+    <t>代理商名称</t>
+  </si>
+  <si>
+    <t>代理商名称 输入为空，其它参数正确输入（下面所有用例省略此句），点击 新增</t>
+  </si>
+  <si>
+    <t>提示：请填写代理商名称</t>
+  </si>
+  <si>
+    <t>代理商名称 输入已存在的值，点击新增</t>
+  </si>
+  <si>
+    <t>弹出提示框：代理商名称已存在
+点击确认后，留在编辑页面，且参数不变</t>
+  </si>
+  <si>
+    <t>代理商名称 输入已存在的 代理商名称，点击新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入已存在的 商户名称，点击新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入纯空格，点击 新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入一个纯数字，点击新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入纯字母，点击新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入纯汉字，点击新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入纯特殊字符，点击新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入html标签，点击 新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入允许的最大字符长度，点击新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入最大字符长度的字母，点击新增</t>
+  </si>
+  <si>
+    <t>代理商名称 输入最大字符长度的汉字，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称（非必填）</t>
+  </si>
+  <si>
+    <t>代理商简称 输入为空，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入已存在的值，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入空格，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入一个数字，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入字母，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入汉字，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入特殊字符，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入HTML标签，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入允许的最大字符长度，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入最大字符长度的字母，点击新增</t>
+  </si>
+  <si>
+    <t>代理商简称 输入最大字符长度的汉字，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入为空，点击新增</t>
+  </si>
+  <si>
+    <t>提示：请填写管理员用户名</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入已存在的用户名，点击新增</t>
+  </si>
+  <si>
+    <t>弹出提示框：管理员用户名已存在，点击确认后，留在编辑页面</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入已存在的代理商用户名，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入已存在的商户用户名，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入空格，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入一个数字，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入字母，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入汉字，点击新增</t>
+  </si>
+  <si>
+    <t>提示：管理员用户名不正确</t>
+  </si>
+  <si>
+    <t>管理员用户名 含有下划线，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 含有其它特殊字符，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入允许的最大字符长度，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入最大字符长度的字母，点击新增</t>
+  </si>
+  <si>
+    <t>管理员用户名 输入最大字符长度的汉字，点击新增</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>地址 输入为空，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入已存在的值，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入空格，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入一个数字，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入字母，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入汉字，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入特殊字符，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入HTML标签，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入允许的最大字符长度，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入最大字符长度的字母，点击新增</t>
+  </si>
+  <si>
+    <t>地址 输入最大字符长度的汉字，点击新增</t>
+  </si>
+  <si>
+    <t>代理商等级</t>
+  </si>
+  <si>
+    <t>选择第1条</t>
+  </si>
+  <si>
+    <t>提示：请选择代理商等级</t>
+  </si>
+  <si>
+    <t>选择第2条</t>
+  </si>
+  <si>
+    <t>选择第3条</t>
+  </si>
+  <si>
+    <t>选择第4条</t>
+  </si>
+  <si>
+    <t>币种</t>
+  </si>
+  <si>
+    <t>不选择</t>
+  </si>
+  <si>
+    <t>提示：请选择币种</t>
   </si>
 </sst>
 </file>
@@ -636,19 +920,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,7 +950,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,17 +958,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -702,9 +971,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,29 +1002,31 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,38 +1041,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,8 +1071,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,6 +1081,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,7 +1108,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +1222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,19 +1234,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,127 +1288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,30 +1354,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1131,26 +1384,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1169,8 +1402,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,148 +1456,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,31 +1605,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1723,7 +2000,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1777,7 +2054,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="3:5">
       <c r="C4" s="1" t="s">
@@ -1800,12 +2077,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD138"/>
+  <dimension ref="A1:XFD157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="$A74:$XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1"/>
@@ -1851,13 +2128,6 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
       <c r="XFC2" s="3"/>
       <c r="XFD2" s="3"/>
     </row>
@@ -1877,17 +2147,12 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="XFC4" s="3"/>
       <c r="XFD4" s="3"/>
     </row>
@@ -2154,7 +2419,7 @@
       <c r="E36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2176,7 +2441,7 @@
       <c r="E38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2650,7 +2915,7 @@
       <c r="C92" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -2661,7 +2926,7 @@
       <c r="C93" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="8" t="s">
         <v>147</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -2672,7 +2937,7 @@
       <c r="C94" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="8" t="s">
         <v>149</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -2713,7 +2978,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
-      <c r="H99" s="8"/>
+      <c r="H99" s="6"/>
     </row>
     <row r="100" customHeight="1" spans="3:3">
       <c r="C100" s="1" t="s">
@@ -2730,7 +2995,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="8"/>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" customHeight="1" spans="3:5">
       <c r="C103" s="1" t="s">
@@ -2774,7 +3039,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
-      <c r="H107" s="8"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" customHeight="1" spans="3:5">
       <c r="C108" s="1" t="s">
@@ -2810,7 +3075,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="8"/>
+      <c r="H112" s="6"/>
     </row>
     <row r="113" customHeight="1" spans="1:8">
       <c r="A113" s="4" t="s">
@@ -2822,7 +3087,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
-      <c r="H113" s="8"/>
+      <c r="H113" s="6"/>
     </row>
     <row r="114" customHeight="1" spans="3:5">
       <c r="C114" s="1" t="s">
@@ -2931,7 +3196,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
-      <c r="H126" s="8"/>
+      <c r="H126" s="6"/>
     </row>
     <row r="127" customHeight="1" spans="3:5">
       <c r="C127" s="1" t="s">
@@ -3035,8 +3300,157 @@
         <v>186</v>
       </c>
     </row>
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" customHeight="1" spans="3:5">
+      <c r="C140" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="3:5">
+      <c r="C141" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="2:5">
+      <c r="B142" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="3:5">
+      <c r="C143" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="3:5">
+      <c r="C144" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="2:5">
+      <c r="B145" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="3:5">
+      <c r="C146" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="3:5">
+      <c r="C147" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="2:5">
+      <c r="B148" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="3:5">
+      <c r="C149" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="3:5">
+      <c r="C150" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="2:5">
+      <c r="B151" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="3:5">
+      <c r="C152" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="3:5">
+      <c r="C153" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="3:5">
+      <c r="C155" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="2:2">
+      <c r="B157" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A99:H99"/>
@@ -3045,9 +3459,1703 @@
     <mergeCell ref="A112:H112"/>
     <mergeCell ref="A113:H113"/>
     <mergeCell ref="A126:H126"/>
+    <mergeCell ref="A139:H139"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="40" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12.2" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.025" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.65" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.025" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
+    <col min="9" max="16381" width="20.625" style="1" customWidth="1"/>
+    <col min="16382" max="16382" width="20.625" style="1"/>
+    <col min="16383" max="16384" width="20.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A2" s="2"/>
+      <c r="XFC2" s="3"/>
+      <c r="XFD2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="XFC3" s="3"/>
+      <c r="XFD3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="XFC4" s="3"/>
+      <c r="XFD4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="XFC5" s="3"/>
+      <c r="XFD5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="XFC6" s="3"/>
+      <c r="XFD6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="XFC7" s="3"/>
+      <c r="XFD7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="XFC8" s="3"/>
+      <c r="XFD8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="XFC9" s="3"/>
+      <c r="XFD9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="XFC10" s="3"/>
+      <c r="XFD10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="XFC11" s="3"/>
+      <c r="XFD11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="XFC12" s="3"/>
+      <c r="XFD12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="XFC13" s="3"/>
+      <c r="XFD13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="XFC14" s="3"/>
+      <c r="XFD14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="XFC15" s="3"/>
+      <c r="XFD15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="XFC16" s="3"/>
+      <c r="XFD16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="XFC17" s="3"/>
+      <c r="XFD17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="XFC18" s="3"/>
+      <c r="XFD18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A19" s="2"/>
+      <c r="XFC19" s="3"/>
+      <c r="XFD19" s="3"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="XFC21" s="3"/>
+      <c r="XFD21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="XFC22" s="3"/>
+      <c r="XFD22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="XFC23" s="3"/>
+      <c r="XFD23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="XFC24" s="3"/>
+      <c r="XFD24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="XFC25" s="3"/>
+      <c r="XFD25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="XFC26" s="3"/>
+      <c r="XFD26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="XFC27" s="3"/>
+      <c r="XFD27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="XFC28" s="3"/>
+      <c r="XFD28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="XFC29" s="3"/>
+      <c r="XFD29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="XFC30" s="3"/>
+      <c r="XFD30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="XFC31" s="3"/>
+      <c r="XFD31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="XFC32" s="3"/>
+      <c r="XFD32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="XFC33" s="3"/>
+      <c r="XFD33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="XFC34" s="3"/>
+      <c r="XFD34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="XFC35" s="3"/>
+      <c r="XFD35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="57" customHeight="1" spans="1:16384">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="XFC36" s="3"/>
+      <c r="XFD36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="XFC37" s="3"/>
+      <c r="XFD37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="XFC38" s="3"/>
+      <c r="XFD38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="XFC39" s="3"/>
+      <c r="XFD39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="XFC40" s="3"/>
+      <c r="XFD40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="XFC41" s="3"/>
+      <c r="XFD41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="XFC42" s="3"/>
+      <c r="XFD42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="XFC43" s="3"/>
+      <c r="XFD43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="XFC44" s="3"/>
+      <c r="XFD44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="XFC45" s="3"/>
+      <c r="XFD45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="XFC46" s="3"/>
+      <c r="XFD46" s="3"/>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="XFC47" s="3"/>
+      <c r="XFD47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="XFC48" s="3"/>
+      <c r="XFD48" s="3"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="XFC49" s="3"/>
+      <c r="XFD49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="XFC50" s="3"/>
+      <c r="XFD50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="XFC51" s="3"/>
+      <c r="XFD51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="XFC52" s="3"/>
+      <c r="XFD52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="XFC53" s="3"/>
+      <c r="XFD53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="XFC54" s="3"/>
+      <c r="XFD54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="XFC55" s="3"/>
+      <c r="XFD55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="XFC56" s="3"/>
+      <c r="XFD56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="XFC57" s="3"/>
+      <c r="XFD57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="XFC58" s="3"/>
+      <c r="XFD58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="XFC59" s="3"/>
+      <c r="XFD59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="XFC60" s="3"/>
+      <c r="XFD60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="XFC61" s="3"/>
+      <c r="XFD61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="XFC62" s="3"/>
+      <c r="XFD62" s="3"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="XFC63" s="3"/>
+      <c r="XFD63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="XFC64" s="3"/>
+      <c r="XFD64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="XFC65" s="3"/>
+      <c r="XFD65" s="3"/>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="XFC66" s="3"/>
+      <c r="XFD66" s="3"/>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A67" s="2"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="XFC67" s="3"/>
+      <c r="XFD67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="XFC68" s="3"/>
+      <c r="XFD68" s="3"/>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A69" s="2"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="XFC69" s="3"/>
+      <c r="XFD69" s="3"/>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="XFC70" s="3"/>
+      <c r="XFD70" s="3"/>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="XFC71" s="3"/>
+      <c r="XFD71" s="3"/>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="XFC72" s="3"/>
+      <c r="XFD72" s="3"/>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A73" s="2"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="XFC73" s="3"/>
+      <c r="XFD73" s="3"/>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="XFC74" s="3"/>
+      <c r="XFD74" s="3"/>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A75" s="2"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="XFC75" s="3"/>
+      <c r="XFD75" s="3"/>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A76" s="2"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="XFC76" s="3"/>
+      <c r="XFD76" s="3"/>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A77" s="2"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="XFC77" s="3"/>
+      <c r="XFD77" s="3"/>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="XFC78" s="3"/>
+      <c r="XFD78" s="3"/>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A79" s="2"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="XFC79" s="3"/>
+      <c r="XFD79" s="3"/>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="XFC80" s="3"/>
+      <c r="XFD80" s="3"/>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="XFC81" s="3"/>
+      <c r="XFD81" s="3"/>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A82" s="2"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="XFC82" s="3"/>
+      <c r="XFD82" s="3"/>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A83" s="2"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="XFC83" s="3"/>
+      <c r="XFD83" s="3"/>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="XFC84" s="3"/>
+      <c r="XFD84" s="3"/>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="XFC85" s="3"/>
+      <c r="XFD85" s="3"/>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="XFC86" s="3"/>
+      <c r="XFD86" s="3"/>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="XFC87" s="3"/>
+      <c r="XFD87" s="3"/>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="XFC88" s="3"/>
+      <c r="XFD88" s="3"/>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="XFC89" s="3"/>
+      <c r="XFD89" s="3"/>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="XFC90" s="3"/>
+      <c r="XFD90" s="3"/>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A91" s="2"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="XFC91" s="3"/>
+      <c r="XFD91" s="3"/>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="XFC92" s="3"/>
+      <c r="XFD92" s="3"/>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="XFC93" s="3"/>
+      <c r="XFD93" s="3"/>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="XFC94" s="3"/>
+      <c r="XFD94" s="3"/>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="XFC95" s="3"/>
+      <c r="XFD95" s="3"/>
+    </row>
+    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A96" s="2"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="XFC96" s="3"/>
+      <c r="XFD96" s="3"/>
+    </row>
+    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A97" s="2"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="XFC97" s="3"/>
+      <c r="XFD97" s="3"/>
+    </row>
+    <row r="98" customHeight="1" spans="2:5">
+      <c r="B98" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:5">
+      <c r="C99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:5">
+      <c r="C100" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:5">
+      <c r="C101" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:5">
+      <c r="C102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:5">
+      <c r="C103" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:5">
+      <c r="C104" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:5">
+      <c r="C105" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:5">
+      <c r="C106" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="3:5">
+      <c r="C107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="3:5">
+      <c r="C108" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="2:5">
+      <c r="B109" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="3:5">
+      <c r="C110" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="3:5">
+      <c r="C111" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="3:5">
+      <c r="C112" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="2:5">
+      <c r="B113" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>